--- a/results/mp/logistic/corona/confidence/210/topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,21 +46,18 @@
     <t>forced</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -70,78 +67,78 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
@@ -151,25 +148,25 @@
     <t>help</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -535,10 +532,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +593,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +611,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7241379310344828</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5789473684210527</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +711,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,7 +743,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -764,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>0.8839285714285714</v>
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.417989417989418</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L7">
         <v>22</v>
       </c>
-      <c r="K7">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="L7">
-        <v>89</v>
-      </c>
       <c r="M7">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +843,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3624031007751938</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C8">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>87</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2666666666666667</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>314</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1879194630872483</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,69 +961,45 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>121</v>
+        <v>320</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10">
+        <v>0.796875</v>
+      </c>
+      <c r="L10">
+        <v>102</v>
+      </c>
+      <c r="M10">
+        <v>102</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K10">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L10">
-        <v>47</v>
-      </c>
-      <c r="M10">
-        <v>47</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.09722222222222222</v>
-      </c>
-      <c r="C11">
-        <v>35</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>325</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,12 +1011,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12">
         <v>0.7777777777777778</v>
@@ -1069,16 +1042,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L13">
         <v>28</v>
       </c>
-      <c r="K13">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
       <c r="M13">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L19">
         <v>34</v>
       </c>
-      <c r="K19">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="L19">
-        <v>26</v>
-      </c>
       <c r="M19">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1219,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7037037037037037</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1245,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6825396825396826</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1329,16 +1302,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K23">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6352941176470588</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L24">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="M24">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6060606060606061</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.5899581589958159</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M27">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,12 +1427,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
         <v>0.5638297872340425</v>
@@ -1485,16 +1458,16 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.5389830508474577</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L29">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M29">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1479,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.5384615384615384</v>
+        <v>0.55</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5285714285714286</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,21 +1531,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.525</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,21 +1557,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4157303370786517</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.282051282051282</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.273972602739726</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,33 +1635,33 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36">
-        <v>0.004010427110487266</v>
+        <v>0.01668056713928273</v>
       </c>
       <c r="L36">
         <v>20</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>0.6899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.3100000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>4967</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
